--- a/attendance/資料/10_要件定義/要件定義.xlsx
+++ b/attendance/資料/10_要件定義/要件定義.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami03\git\attendance\attendance\資料\10_要件定義\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1084B613-A5F8-4437-ACFC-013AF7F99557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,677 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度</t>
+    <rPh sb="0" eb="3">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>転職しても使える汎用性</t>
+    <rPh sb="0" eb="2">
+      <t>テンショク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ハンヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠を自動で組む</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先月と来月分の勤怠の差</t>
+    <rPh sb="0" eb="2">
+      <t>センゲツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ライゲツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日曜から土曜まで</t>
+    <rPh sb="0" eb="2">
+      <t>ニチヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最低限、月の始まりと終わりの週をまたいでも見れる</t>
+    <rPh sb="0" eb="2">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>往診対応：第2・4水曜はA医院から医者など</t>
+    <rPh sb="0" eb="4">
+      <t>オウシンタイオウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イイン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定の往診対応の日を登録</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>オウシンタイオウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医者が来る日は看護師が出勤必須→曜日に合わせてシフトを作る</t>
+    <rPh sb="0" eb="2">
+      <t>イシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カンゴシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>看護師の２～３人をいい感じに割り振りたい</t>
+    <rPh sb="0" eb="3">
+      <t>カンゴシ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夜は介護士1人いればOK</t>
+    <rPh sb="0" eb="1">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カイゴシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎日看護師1人（9:00~18:00）：登録できるようにしたい</t>
+    <rPh sb="0" eb="2">
+      <t>マイニチ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カンゴシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員には希望休を提出</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>キボウキュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昼間2～3人の人員</t>
+    <rPh sb="0" eb="2">
+      <t>ヒルマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>看護師の勤怠を組みたい　9:00~18:00</t>
+    <rPh sb="0" eb="3">
+      <t>カンゴシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">早番　8:00~17:00 </t>
+    <rPh sb="0" eb="2">
+      <t>ハヤバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遅番　10:00~19:00</t>
+    <rPh sb="0" eb="2">
+      <t>オソバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常　9:00~18:00</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人数が1人以下のときアラート→人員不足を赤で表示するなど</t>
+    <rPh sb="0" eb="2">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ジンインブソク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これは人によって固定</t>
+    <rPh sb="3" eb="4">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>希望休を登録するのは手入力</t>
+    <rPh sb="0" eb="3">
+      <t>キボウキュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>テニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>希望休を登録してからシフト自動作成</t>
+    <rPh sb="0" eb="3">
+      <t>キボウキュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>往診対応する人◎</t>
+    <rPh sb="0" eb="4">
+      <t>オウシンタイオウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常出勤〇</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュッキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休暇希望×</t>
+    <rPh sb="0" eb="4">
+      <t>キュウカキボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以上のマークも変更したい</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人によって月の勤務日数が決まっている</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4連勤にはできるだけしない・週休2日はほしい</t>
+    <rPh sb="1" eb="3">
+      <t>レンキン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウキュウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録できるようにする</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動生成は8割完成→その後手入力で修正</t>
+    <rPh sb="0" eb="4">
+      <t>ジドウセイセイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>往診の日時も登録したい</t>
+    <rPh sb="0" eb="2">
+      <t>オウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録画面</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>希望休（毎月入力）</t>
+    <rPh sb="0" eb="3">
+      <t>キボウキュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>マイツキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曜日によって往診対応有り：対応看護師固定</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="6" eb="11">
+      <t>オウシンタイオウア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>カンゴシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応看護師１・２・３（シフト優先度）</t>
+    <rPh sb="0" eb="5">
+      <t>タイオウカンゴシ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>介護施設　看護師のシフト</t>
+    <rPh sb="0" eb="4">
+      <t>カイゴシセツ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カンゴシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID/Pass/会社コード(自由)　を入力してログイン→会社ごとに見れるページを変えたい</t>
+    <rPh sb="8" eb="10">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前・連勤の上限・固定曜日の休み
+出勤時間・月の勤務日数（変更あれば）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>レンキン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>シュッキンジカン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>キンムニッスウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>往診</t>
+    <rPh sb="0" eb="2">
+      <t>オウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医院の名前・何週目の何曜か往診日・対応看護師（変更あれば）</t>
+    <rPh sb="0" eb="2">
+      <t>イイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ナンシュウメ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナンヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウシン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>カンゴシ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>印刷して使う</t>
+    <rPh sb="0" eb="2">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績の欄は枠だけ</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考欄の履歴は残したい（一年分）</t>
+    <rPh sb="0" eb="3">
+      <t>ビコウラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>イチネンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +718,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +1002,219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="45.83203125" customWidth="1"/>
+    <col min="16" max="16" width="36.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="36">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7">
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="G24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7">
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7">
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7">
+      <c r="G32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/attendance/資料/10_要件定義/要件定義.xlsx
+++ b/attendance/資料/10_要件定義/要件定義.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami03\git\attendance\attendance\資料\10_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1084B613-A5F8-4437-ACFC-013AF7F99557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99676BA7-E4D8-4708-9C96-F21FEFDB6023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -674,6 +675,332 @@
     </rPh>
     <rPh sb="12" eb="15">
       <t>イチネンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>看護師の勤怠</t>
+    <rPh sb="0" eb="3">
+      <t>カンゴシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>看護師情報登録</t>
+    <rPh sb="0" eb="3">
+      <t>カンゴシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>往診関係登録</t>
+    <rPh sb="0" eb="2">
+      <t>オウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>希望休登録</t>
+    <rPh sb="0" eb="3">
+      <t>キボウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シフト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業ID</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連勤の上限</t>
+    <rPh sb="0" eb="2">
+      <t>レンキン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定曜日休み</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出勤時間</t>
+    <rPh sb="0" eb="4">
+      <t>シュッキンジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月の勤務日数</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>キンムニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>往診元</t>
+    <rPh sb="0" eb="2">
+      <t>オウシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>往診日時</t>
+    <rPh sb="0" eb="2">
+      <t>オウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当看護師１</t>
+    <rPh sb="0" eb="5">
+      <t>タントウカンゴシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当看護師２</t>
+    <rPh sb="0" eb="5">
+      <t>タントウカンゴシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当看護師３</t>
+    <rPh sb="0" eb="5">
+      <t>タントウカンゴシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>希望休</t>
+    <rPh sb="0" eb="3">
+      <t>キボウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数パターン登録</t>
+    <rPh sb="0" eb="1">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シフト優先度１</t>
+    <rPh sb="3" eb="6">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シフト優先度２</t>
+    <rPh sb="3" eb="6">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シフト優先度３</t>
+    <rPh sb="3" eb="6">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>週・曜日</t>
+    <rPh sb="0" eb="1">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業によって変更</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◎、〇、×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シフト確認</t>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>看護師情報登録</t>
+    <rPh sb="0" eb="5">
+      <t>カンゴシジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>往診関係登録</t>
+    <rPh sb="0" eb="6">
+      <t>オウシンカンケイトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先月、今月、来月を表示</t>
+    <rPh sb="0" eb="2">
+      <t>センゲツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コンゲツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ライゲツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -706,7 +1033,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -714,14 +1041,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1005,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="101" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1217,4 +1568,203 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214945CA-81BC-4A93-8B6C-B98D500E4DFC}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.58203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.08203125" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1">
+      <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="C5" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="C17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="C18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="C19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="C27" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="C28" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="C29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="C30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/attendance/資料/10_要件定義/要件定義.xlsx
+++ b/attendance/資料/10_要件定義/要件定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami03\git\attendance\attendance\資料\10_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99676BA7-E4D8-4708-9C96-F21FEFDB6023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A69702-24EA-41D2-898B-1CCB721D8463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -736,10 +736,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シフト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -998,9 +994,116 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>変更ボタン</t>
-    <rPh sb="0" eb="2">
+    <t>プルダウン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラジオボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シフト作成前</t>
+    <rPh sb="3" eb="6">
+      <t>サクセイマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成後</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動生成ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月変更</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他設定</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シフト出力記号変更</t>
+    <rPh sb="3" eb="7">
+      <t>シュツリョクキゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前表示変更</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>苗字のみまたは氏名表示</t>
+    <rPh sb="0" eb="2">
+      <t>ミョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集後登録ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集用選択ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1356,7 +1459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="101" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -1572,10 +1675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214945CA-81BC-4A93-8B6C-B98D500E4DFC}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1597,16 +1700,16 @@
         <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1614,28 +1717,28 @@
         <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="C5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="C7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1643,30 +1746,36 @@
         <v>50</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1674,93 +1783,124 @@
         <v>51</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="C17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="C18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="C19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" t="s">
-        <v>77</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="C22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="C25" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C26" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="C27" s="3" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="2:8">
+      <c r="B28" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="C29" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H29" s="1"/>
+        <v>82</v>
+      </c>
     </row>
     <row r="30" spans="2:8">
       <c r="C30" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="C31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="C32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" t="s">
         <v>84</v>
       </c>
-      <c r="F30" t="s">
-        <v>85</v>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="C35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/attendance/資料/10_要件定義/要件定義.xlsx
+++ b/attendance/資料/10_要件定義/要件定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami03\git\attendance\attendance\資料\10_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A69702-24EA-41D2-898B-1CCB721D8463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB7EF12-A7C6-4AB0-A734-0DE3705CC93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="16920" windowHeight="10450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -696,36 +696,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>看護師情報登録</t>
-    <rPh sb="0" eb="3">
-      <t>カンゴシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>往診関係登録</t>
-    <rPh sb="0" eb="2">
-      <t>オウシン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>希望休登録</t>
     <rPh sb="0" eb="3">
       <t>キボウキュウ</t>
@@ -998,24 +968,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ラジオボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シフト作成前</t>
-    <rPh sb="3" eb="6">
-      <t>サクセイマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成後</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自動生成ボタン</t>
     <rPh sb="0" eb="2">
       <t>ジドウ</t>
@@ -1036,16 +988,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>その他設定</t>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>シフト出力記号変更</t>
     <rPh sb="3" eb="7">
       <t>シュツリョクキゴウ</t>
@@ -1104,6 +1046,88 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.ホーム画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.看護師情報登録</t>
+    <rPh sb="2" eb="5">
+      <t>カンゴシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.往診関係登録</t>
+    <rPh sb="2" eb="4">
+      <t>オウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.その他設定</t>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.シフト一覧</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.シフト作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務時間パターン登録</t>
+    <rPh sb="0" eb="4">
+      <t>キンムジカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1459,7 +1483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="101" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="101" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -1675,232 +1699,237 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214945CA-81BC-4A93-8B6C-B98D500E4DFC}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="107" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="15" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.4140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.58203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.08203125" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1">
+    <row r="3" spans="1:18" s="2" customFormat="1">
       <c r="B3" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="C5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="C6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="C7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="B9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="C10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="N11" s="2"/>
+      <c r="O11" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="B12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="C13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="C14" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="B16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="C19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="C20" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="C23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="C24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="C25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="C5" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="C6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="C7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="C10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="26" spans="2:4">
+      <c r="C26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="C27" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="C11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="30" spans="2:4">
+      <c r="C30" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="C12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="C13" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="C16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="C17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="C18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="C19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="2" t="s">
+      <c r="D30" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="C22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="C25" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="C26" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="C29" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="C30" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
+    </row>
+    <row r="31" spans="2:4">
       <c r="C31" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="C32" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="C35" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
